--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -17932,8 +17932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8126" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8129" uniqueCount="1218">
   <si>
     <t>Part Number</t>
   </si>
@@ -3659,6 +3659,18 @@
   </si>
   <si>
     <t>SPDT_Power_L102021ML04Q_Thru-Hole</t>
+  </si>
+  <si>
+    <t>GainBlock_RFMD_SGA6489_PCB</t>
+  </si>
+  <si>
+    <t>NMOS_Fairchild_FDV301_SOT23-3</t>
+  </si>
+  <si>
+    <t>TCXO_KYOCERA_KT2520Y40000ECV28TBA_PCB-6PIN</t>
+  </si>
+  <si>
+    <t>ZYNQ_xc7z020clg484pkg_BGA-484</t>
   </si>
 </sst>
 </file>
@@ -17932,8 +17944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:E66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18613,18 +18625,22 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" s="20" customFormat="1">
+      <c r="A13" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="19" t="s">
         <v>783</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="20" customFormat="1">
@@ -18843,18 +18859,22 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="21" t="s">
         <v>1117</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="21" t="s">
         <v>1118</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="24" t="s">
         <v>1119</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="20" customFormat="1">
@@ -19409,21 +19429,24 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:6" s="20" customFormat="1">
+      <c r="A58" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="19" t="s">
         <v>856</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="20" customFormat="1">
@@ -19522,22 +19545,22 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:6" s="20" customFormat="1" ht="15.75">
+      <c r="A64" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>101</v>
+      <c r="F64" s="19" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="20" customFormat="1">

--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4117,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G700"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361:XFD673"/>
+    <sheetView topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17944,8 +17944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19892,7 +19892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:F52"/>
     </sheetView>
   </sheetViews>
@@ -20955,8 +20955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H585"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Final" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6969" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6975" uniqueCount="1227">
   <si>
     <t>Part Number</t>
   </si>
@@ -3680,6 +3681,24 @@
   </si>
   <si>
     <t>BarrelJack_PJ-028-SMT</t>
+  </si>
+  <si>
+    <t>SchottkyDiode_SS2P2-M384A_2-PIN</t>
+  </si>
+  <si>
+    <t>PL vref</t>
+  </si>
+  <si>
+    <t>L1 OK</t>
+  </si>
+  <si>
+    <t>Antenna connector</t>
+  </si>
+  <si>
+    <t>gps antenna</t>
+  </si>
+  <si>
+    <t>only for sstl &amp; hstl</t>
   </si>
 </sst>
 </file>
@@ -3778,7 +3797,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3829,6 +3848,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4126,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G700"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView topLeftCell="A324" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17953,8 +17976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20971,8 +20994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F388" sqref="F388"/>
+    <sheetView topLeftCell="A344" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28637,6 +28660,9 @@
       <c r="E367" t="s">
         <v>362</v>
       </c>
+      <c r="F367" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
@@ -29296,4 +29322,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="30"/>
+      <c r="C7" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Final" sheetId="4" r:id="rId4"/>
-    <sheet name="Spotting errors in parameterMan" sheetId="5" r:id="rId5"/>
+    <sheet name="CHANGES" sheetId="7" r:id="rId5"/>
+    <sheet name="Spotting errors in parameterMan" sheetId="5" r:id="rId6"/>
+    <sheet name="error pcb import" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10840" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11039" uniqueCount="1303">
   <si>
     <t>Part Number</t>
   </si>
@@ -3726,13 +3728,247 @@
   </si>
   <si>
     <t>ETHERNET INTERRUPT</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Affected Object</t>
+  </si>
+  <si>
+    <t>Affected Document</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>DDR3_CLK0</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>PCB1.PcbDoc</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair DDR3_CLK0 : Positive Net [DDR3_CLK0_P] &amp; Negative Net [DDR3_CLK0_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>DDR3_DQS0</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair DDR3_DQS0 : Positive Net [DDR3_DQS0_P] &amp; Negative Net [DDR3_DQS0_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>DDR3_DQS1</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair DDR3_DQS1 : Positive Net [DDR3_DQS1_P] &amp; Negative Net [DDR3_DQS1_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>DDR3_DQS2</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair DDR3_DQS2 : Positive Net [DDR3_DQS2_P] &amp; Negative Net [DDR3_DQS2_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>DDR3_DQS3</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair DDR3_DQS3 : Positive Net [DDR3_DQS3_P] &amp; Negative Net [DDR3_DQS3_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>RXIN1</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair RXIN1 : Positive Net [RXIN1_P] &amp; Negative Net [RXIN1_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>RXIN2</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair RXIN2 : Positive Net [RXIN2_P] &amp; Negative Net [RXIN2_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>RXIN3</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair RXIN3 : Positive Net [RXIN3_P] &amp; Negative Net [RXIN3_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>TXOUT1</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair TXOUT1 : Positive Net [TXOUT1_P] &amp; Negative Net [TXOUT1_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>TXOUT2</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair TXOUT2 : Positive Net [TXOUT2_P] &amp; Negative Net [TXOUT2_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>USB_JTAG_D</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair USB_JTAG_D : Positive Net [USB_JTAG_D_P] &amp; Negative Net [USB_JTAG_D_N] in current PCB document</t>
+  </si>
+  <si>
+    <t>USB_UART_D</t>
+  </si>
+  <si>
+    <t>Net(s) Not Found in Differential Pair USB_UART_D : Positive Net [USB_UART_D_P] &amp; Negative Net [USB_UART_D_N] in current PCB document</t>
+  </si>
+  <si>
+    <r>
+      <t>Part no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(WRONG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CHANGE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>WRONG PART NO.</t>
+  </si>
+  <si>
+    <t>FXO-HC536R-12</t>
+  </si>
+  <si>
+    <t>OSC 12.000 MHZ 3.3V SMD</t>
+  </si>
+  <si>
+    <t>LM339MX/NOPB</t>
+  </si>
+  <si>
+    <t>IC COMPARATOR QUAD LO PWR 14SOIC</t>
+  </si>
+  <si>
+    <t>RF2197-000</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5V 4CH UNI SMD</t>
+  </si>
+  <si>
+    <t>S25FL256SAGMFI001</t>
+  </si>
+  <si>
+    <t>S25FL256SAGNFI001</t>
+  </si>
+  <si>
+    <t>Spansion Inc</t>
+  </si>
+  <si>
+    <t>IC FLASH 256MBIT 133MHZ 8WSON</t>
+  </si>
+  <si>
+    <t>WRONG PART_NO. &amp; PACKAGE</t>
+  </si>
+  <si>
+    <t>PE42440MLBB-Z</t>
+  </si>
+  <si>
+    <t>WRONG PART NO.,note: RE CHECK</t>
+  </si>
+  <si>
+    <t>CHECK LANDING PATTERN</t>
+  </si>
+  <si>
+    <t>HEIGHT NOT FOUND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Library ref "ZenerDiode" needs to be changed along with the schematic symbol. 2. Components have to be manually replaced ion the schematic sheets. NOTE: FOOTPRINT is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORRECT !!!</t>
+    </r>
+  </si>
+  <si>
+    <t>NEW DESCRIPTION ADDED(with footprint)</t>
+  </si>
+  <si>
+    <t>CHECK LANDING PATTERN for POSITIVE PIN MARKING</t>
+  </si>
+  <si>
+    <t>WRONG SCHEMATIC PIN ORDERING</t>
+  </si>
+  <si>
+    <t>1. ACTUAL PITCH(0.8) &amp; PITCH IN THE RECOMMENDED PCB DRAWING(1.0) VARIES 2. Ball size is 0.5mm &amp; recommended land is 0.53</t>
+  </si>
+  <si>
+    <t>LMS6002DFN</t>
+  </si>
+  <si>
+    <t>L834-1G1T-S7</t>
+  </si>
+  <si>
+    <t>HSMH-C190</t>
+  </si>
+  <si>
+    <t>1. WRONG PART NO. 2. WRONG FOOTPRINT</t>
+  </si>
+  <si>
+    <t>WRONG FOOTPRINT</t>
+  </si>
+  <si>
+    <t>DONE ?</t>
+  </si>
+  <si>
+    <t>UPDATED IN PARAMETER MANAGER ?</t>
+  </si>
+  <si>
+    <t>UPDATED IN DATABASE ?</t>
+  </si>
+  <si>
+    <t>LED0603(1608)_HSMH-C190</t>
+  </si>
+  <si>
+    <t>LED0603(1608)_HSMG-C190</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3764,6 +4000,19 @@
       <u/>
       <sz val="9.35"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4006,7 +4255,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4082,6 +4331,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21225,8 +21494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28087,7 +28356,7 @@
         <v>351</v>
       </c>
       <c r="F320" t="s">
-        <v>1133</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -28107,7 +28376,7 @@
         <v>351</v>
       </c>
       <c r="F321" t="s">
-        <v>1133</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -29557,9 +29826,487 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>859</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="30" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="6">
+        <v>750310742</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45">
+      <c r="B11" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="B12" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C17" t="s">
+        <v>926</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="B20" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="30" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C23" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" t="s">
+        <v>635</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" t="s">
+        <v>631</v>
+      </c>
+      <c r="D24" t="s">
+        <v>632</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://digikey.com/Suppliers/us/Fox-Electronics.page?lang=en"/>
+    <hyperlink ref="C5" r:id="rId2" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://digikey.com/Suppliers/us/Tyco-Electronics-Raychem-Circuit-Protection.page?lang=en"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
@@ -43167,4 +43914,286 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11039" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11048" uniqueCount="1306">
   <si>
     <t>Part Number</t>
   </si>
@@ -3962,6 +3962,15 @@
   </si>
   <si>
     <t>LED0603(1608)_HSMG-C190</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES </t>
+  </si>
+  <si>
+    <t>NOT USED</t>
   </si>
 </sst>
 </file>
@@ -4255,7 +4264,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4329,9 +4338,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4352,6 +4358,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -21494,7 +21504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A315" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
@@ -29828,8 +29838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29878,7 +29888,7 @@
       <c r="A2" t="s">
         <v>860</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1145</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -29890,7 +29900,7 @@
       <c r="E2" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -29898,7 +29908,7 @@
       <c r="A3" t="s">
         <v>857</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1147</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -29907,10 +29917,10 @@
       <c r="D3" s="31" t="s">
         <v>1148</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>859</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -29918,10 +29928,10 @@
       <c r="A4" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1273</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>378</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -29930,7 +29940,7 @@
       <c r="E4" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -29938,10 +29948,10 @@
       <c r="A5" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1275</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>415</v>
       </c>
       <c r="D5" s="31" t="s">
@@ -29950,7 +29960,7 @@
       <c r="E5" s="13" t="s">
         <v>1107</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -29958,10 +29968,10 @@
       <c r="A6" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>1277</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>246</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -29970,7 +29980,7 @@
       <c r="E6" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -29978,7 +29988,7 @@
       <c r="A7" s="30" t="s">
         <v>1279</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>1280</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -29990,7 +30000,7 @@
       <c r="E7" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -30010,7 +30020,7 @@
       <c r="E8" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -30027,7 +30037,7 @@
       <c r="E9" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -30041,7 +30051,7 @@
       <c r="D10" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="57" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -30058,7 +30068,7 @@
       <c r="E11" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -30075,7 +30085,7 @@
       <c r="E12" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -30092,7 +30102,7 @@
       <c r="E13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -30109,7 +30119,7 @@
       <c r="E14" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -30126,8 +30136,11 @@
       <c r="E15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>1290</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -30143,11 +30156,14 @@
       <c r="E16" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="56" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="62" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>1076</v>
       </c>
@@ -30160,11 +30176,14 @@
       <c r="E17" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="6" t="s">
         <v>754</v>
       </c>
@@ -30177,11 +30196,11 @@
       <c r="E18" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="56" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="B19" s="6" t="s">
         <v>1103</v>
       </c>
@@ -30194,11 +30213,11 @@
       <c r="E19" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:9" ht="45">
       <c r="B20" s="4" t="s">
         <v>421</v>
       </c>
@@ -30211,16 +30230,16 @@
       <c r="E20" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>1293</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>429</v>
@@ -30231,16 +30250,16 @@
       <c r="E21" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>1294</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>513</v>
@@ -30251,16 +30270,16 @@
       <c r="E22" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23" t="s">
         <v>1295</v>
-      </c>
-      <c r="B23" t="s">
-        <v>634</v>
       </c>
       <c r="C23" t="s">
         <v>631</v>
@@ -30271,11 +30290,20 @@
       <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="52" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
         <v>630</v>
       </c>
@@ -30288,8 +30316,17 @@
       <c r="E24" t="s">
         <v>351</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="56" t="s">
         <v>1297</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -37052,7 +37089,7 @@
       <c r="D495" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E495" s="51">
+      <c r="E495" s="61">
         <v>4</v>
       </c>
       <c r="G495" s="49" t="s">
@@ -37069,7 +37106,7 @@
       <c r="D496" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E496" s="51"/>
+      <c r="E496" s="61"/>
       <c r="F496" t="s">
         <v>1231</v>
       </c>
@@ -37087,7 +37124,7 @@
       <c r="D497" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E497" s="51"/>
+      <c r="E497" s="61"/>
       <c r="G497" s="43" t="s">
         <v>1209</v>
       </c>
@@ -37116,7 +37153,7 @@
       <c r="D499" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E499" s="51">
+      <c r="E499" s="61">
         <v>5</v>
       </c>
       <c r="G499" s="43" t="s">
@@ -37133,7 +37170,7 @@
       <c r="D500" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E500" s="51"/>
+      <c r="E500" s="61"/>
       <c r="F500" t="s">
         <v>1232</v>
       </c>
@@ -37151,7 +37188,7 @@
       <c r="D501" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E501" s="51"/>
+      <c r="E501" s="61"/>
       <c r="G501" s="43" t="s">
         <v>1180</v>
       </c>
@@ -43108,7 +43145,7 @@
       <c r="D926" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E926" s="51">
+      <c r="E926" s="61">
         <v>7</v>
       </c>
       <c r="G926" s="43" t="s">
@@ -43125,7 +43162,7 @@
       <c r="D927" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E927" s="51"/>
+      <c r="E927" s="61"/>
       <c r="G927" s="45" t="s">
         <v>308</v>
       </c>

--- a/Repository/Schematic Library/Database_Library/components.xlsx
+++ b/Repository/Schematic Library/Database_Library/components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="DESIGN CHECKS" sheetId="8" r:id="rId6"/>
     <sheet name="Spotting errors in parameterMan" sheetId="5" r:id="rId7"/>
     <sheet name="error pcb import" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11105" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11128" uniqueCount="1332">
   <si>
     <t>Part Number</t>
   </si>
@@ -4014,6 +4015,42 @@
   </si>
   <si>
     <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>SN74AHC1G32DRLR</t>
+  </si>
+  <si>
+    <t>IC SNGL 2-IN POS-OR GATE SOT-5</t>
+  </si>
+  <si>
+    <t>OR_Gate_TI_SN74AHC1G32DRLR</t>
+  </si>
+  <si>
+    <t>OR_Gate_TI_SN74AHC1G32DRLR_DRL-5</t>
+  </si>
+  <si>
+    <t>SN74AUP1T08DCKR</t>
+  </si>
+  <si>
+    <t>IC GATE POS-AND SLG 2INP SC70-5</t>
+  </si>
+  <si>
+    <t>AND_Gate_TI_SN74AUP1T08DCKR</t>
+  </si>
+  <si>
+    <t>AND_Gate_TI_SN74AUP1T08DCKR_SC70-5</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF6041X</t>
+  </si>
+  <si>
+    <t>RES 6.04K OHM 1/10W 1% 0402 SMD</t>
+  </si>
+  <si>
+    <t>6.04K</t>
+  </si>
+  <si>
+    <t>RES 2.32K OHM 1/10W 1% 0402 SMD</t>
   </si>
 </sst>
 </file>
@@ -4315,7 +4352,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4436,12 +4473,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -21582,10 +21620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H417"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F321" sqref="F321"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29906,11 +29944,91 @@
         <v>1210</v>
       </c>
     </row>
+    <row r="404" spans="1:6" ht="15.75">
+      <c r="A404" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B404" t="s">
+        <v>415</v>
+      </c>
+      <c r="C404" s="31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="15.75">
+      <c r="A405" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B405" t="s">
+        <v>415</v>
+      </c>
+      <c r="C405" s="31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="15.75">
+      <c r="A406" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B406" t="s">
+        <v>799</v>
+      </c>
+      <c r="C406" s="31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E406" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="15.75">
+      <c r="A407" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B407" t="s">
+        <v>799</v>
+      </c>
+      <c r="C407" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D407" t="s">
+        <v>277</v>
+      </c>
+      <c r="E407" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="15.75">
+      <c r="B417" s="74" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G96" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29918,7 +30036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -30211,7 +30329,7 @@
       <c r="F10" s="57" t="s">
         <v>1287</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>1319</v>
       </c>
       <c r="H10" s="71"/>
@@ -30429,7 +30547,7 @@
       <c r="F19" s="56" t="s">
         <v>1286</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="72" t="s">
         <v>1319</v>
       </c>
       <c r="H19" s="71"/>
@@ -30451,7 +30569,7 @@
       <c r="F20" s="60" t="s">
         <v>1292</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="72" t="s">
         <v>1319</v>
       </c>
       <c r="H20" s="71"/>
@@ -37400,7 +37518,7 @@
       <c r="C478" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D478" s="72">
+      <c r="D478" s="73">
         <v>4</v>
       </c>
       <c r="F478" s="49" t="s">
@@ -37417,7 +37535,7 @@
       <c r="C479" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D479" s="72"/>
+      <c r="D479" s="73"/>
       <c r="E479" t="s">
         <v>1231</v>
       </c>
@@ -37435,7 +37553,7 @@
       <c r="C480" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D480" s="72"/>
+      <c r="D480" s="73"/>
       <c r="F480" s="43" t="s">
         <v>1209</v>
       </c>
@@ -37464,7 +37582,7 @@
       <c r="C482" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D482" s="72">
+      <c r="D482" s="73">
         <v>5</v>
       </c>
       <c r="F482" s="43" t="s">
@@ -37481,7 +37599,7 @@
       <c r="C483" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D483" s="72"/>
+      <c r="D483" s="73"/>
       <c r="E483" t="s">
         <v>1232</v>
       </c>
@@ -37499,7 +37617,7 @@
       <c r="C484" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="D484" s="72"/>
+      <c r="D484" s="73"/>
       <c r="F484" s="43" t="s">
         <v>1180</v>
       </c>
@@ -43456,7 +43574,7 @@
       <c r="C909" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D909" s="72">
+      <c r="D909" s="73">
         <v>7</v>
       </c>
       <c r="F909" s="43" t="s">
@@ -43473,7 +43591,7 @@
       <c r="C910" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D910" s="72"/>
+      <c r="D910" s="73"/>
       <c r="F910" s="45" t="s">
         <v>308</v>
       </c>
@@ -44544,4 +44662,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>